--- a/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,109 +22,163 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>506002</t>
+  </si>
+  <si>
+    <t>519029</t>
+  </si>
+  <si>
+    <t>519908</t>
+  </si>
+  <si>
+    <t>003332</t>
+  </si>
+  <si>
+    <t>003064</t>
+  </si>
+  <si>
+    <t>004946</t>
+  </si>
+  <si>
     <t>004774</t>
   </si>
   <si>
+    <t>004947</t>
+  </si>
+  <si>
     <t>960004</t>
   </si>
   <si>
-    <t>506002</t>
-  </si>
-  <si>
-    <t>519029</t>
-  </si>
-  <si>
-    <t>519908</t>
-  </si>
-  <si>
-    <t>003064</t>
-  </si>
-  <si>
-    <t>003332</t>
-  </si>
-  <si>
-    <t>004946</t>
-  </si>
-  <si>
-    <t>004947</t>
+    <t>易方达科创板两年定期开放混合型证券投资基金</t>
+  </si>
+  <si>
+    <t>华夏稳增混合</t>
+  </si>
+  <si>
+    <t>华夏兴华混合A</t>
+  </si>
+  <si>
+    <t>南方荣发定期开放混合</t>
+  </si>
+  <si>
+    <t>南方荣欢定期开放混合</t>
+  </si>
+  <si>
+    <t>汇添富盈润混合A</t>
   </si>
   <si>
     <t>汇添富添福吉祥混合</t>
   </si>
   <si>
+    <t>汇添富盈润混合C</t>
+  </si>
+  <si>
     <t>华夏兴华混合H</t>
   </si>
   <si>
-    <t>易方达科创板两年定期开放混合型证券投资基金</t>
-  </si>
-  <si>
-    <t>华夏稳增混合</t>
-  </si>
-  <si>
-    <t>华夏兴华混合A</t>
-  </si>
-  <si>
-    <t>南方荣欢定期开放混合</t>
-  </si>
-  <si>
-    <t>南方荣发定期开放混合</t>
-  </si>
-  <si>
-    <t>汇添富盈润混合A</t>
-  </si>
-  <si>
-    <t>汇添富盈润混合C</t>
+    <t>27.64</t>
+  </si>
+  <si>
+    <t>11.56</t>
+  </si>
+  <si>
+    <t>7.81</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>80.26</t>
+  </si>
+  <si>
+    <t>94.04</t>
+  </si>
+  <si>
+    <t>89.82</t>
+  </si>
+  <si>
+    <t>28.92</t>
+  </si>
+  <si>
+    <t>26.63</t>
+  </si>
+  <si>
+    <t>21.92</t>
   </si>
   <si>
     <t>21.71</t>
   </si>
   <si>
-    <t>89.82</t>
-  </si>
-  <si>
-    <t>80.26</t>
-  </si>
-  <si>
-    <t>94.04</t>
-  </si>
-  <si>
-    <t>26.63</t>
-  </si>
-  <si>
-    <t>28.92</t>
-  </si>
-  <si>
-    <t>21.92</t>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>0.08</t>
   </si>
   <si>
     <t>0.14</t>
   </si>
   <si>
-    <t>4.38</t>
-  </si>
-  <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>0.08</t>
+    <t>1.0724</t>
+  </si>
+  <si>
+    <t>0.4913</t>
+  </si>
+  <si>
+    <t>0.3421</t>
+  </si>
+  <si>
+    <t>0.0068</t>
+  </si>
+  <si>
+    <t>0.0048</t>
+  </si>
+  <si>
+    <t>0.0039</t>
+  </si>
+  <si>
+    <t>0.0038</t>
+  </si>
+  <si>
+    <t>0.0007</t>
   </si>
 </sst>
 </file>
@@ -482,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,185 +558,242 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1494,4 +1495,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7905</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6700</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4923</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4777</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3776</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1817,4 +1818,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1826,7 +1827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1837,17 +1838,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1857,14 +1878,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.37</v>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6921</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1873,14 +1916,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.57</v>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1889,13 +1954,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1997,7 +1998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,17 +2009,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2028,14 +2049,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.08</v>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2044,14 +2087,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.37</v>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2060,14 +2125,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>9.57</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="5">
@@ -2076,13 +2247,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2168,7 +2169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2179,17 +2180,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2199,14 +2220,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.43</v>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2215,14 +2258,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.08</v>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2231,14 +2296,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.37</v>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2247,14 +2334,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>9.57</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="6">
@@ -2263,13 +2472,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,388 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0724</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519029</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏稳增混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4913</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519908</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏兴华混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3421</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D5" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003332</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方荣发定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>28.92</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003064</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方荣欢定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>26.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004946</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富盈润混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.92</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004774</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富添福吉祥混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>21.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004947</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富盈润混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>21.92</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>960004</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏兴华混合H</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
+      <c r="D7" t="n">
+        <v>1.93</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -847,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -898,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001538</t>
+          <t>506008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根科技前沿灵活配置混合</t>
+          <t>长城科创两年定开混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>67.45</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.51</t>
+          <t>76.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9965</t>
+          <t>0.0903</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -936,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008314</t>
+          <t>001255</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根慧选成长股票A</t>
+          <t>长城改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>55.59</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>62.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8956</t>
+          <t>0.0335</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -974,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010481</t>
+          <t>360012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富高质量成长精选2年持有期混合</t>
+          <t>光大保德信中小盘混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>55.26</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.43</t>
+          <t>89.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6633</t>
+          <t>0.0309</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1012,488 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>506002</t>
+          <t>012793</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+          <t>长城科创两年定开混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.08</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>76.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3494</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010599</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富高质量成长30一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>31.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.38</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1164</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519029</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏稳增混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5847</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519908</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏兴华混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4306</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008315</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上投摩根慧选成长股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.70</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4075</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0511</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011259</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富高质量成长30一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>80.38</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0495</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005960</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时量化价值股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.64</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005961</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时量化价值股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.64</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008909</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>创金合信鑫益混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21.88</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008910</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>创金合信鑫益混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>21.88</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>960004</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏兴华混合H</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1507,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1528,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1558,32 +847,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000031</t>
+          <t>506001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏复兴混合</t>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.41</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>98.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2964</t>
+          <t>0.3968</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1596,36 +885,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020003</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金龙行业混合</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.83</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7905</t>
+          <t>0.0278</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1634,188 +923,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160212</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰估值优势混合 (LOF)</t>
+          <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6700</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160211</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰中小盘成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4923</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001042</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏领先股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4777</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10.15</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3776</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2700</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +1136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2020,7 +1157,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2050,32 +1187,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506001</t>
+          <t>000031</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+          <t>华夏复兴混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>32.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.14</t>
+          <t>90.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3968</t>
+          <t>1.2964</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2088,36 +1225,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006401</t>
+          <t>020003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合A</t>
+          <t>国泰金龙行业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>78.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0278</t>
+          <t>0.7905</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2126,36 +1263,188 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006402</t>
+          <t>160212</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合C</t>
+          <t>国泰估值优势混合 (LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.6700</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4923</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4777</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3776</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2169,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,7 +1479,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2220,36 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506008</t>
+          <t>001538</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城科创两年定开混合A</t>
+          <t>上投摩根科技前沿灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>67.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.10</t>
+          <t>89.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0903</t>
+          <t>1.9965</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2258,36 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001255</t>
+          <t>008314</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长城改革红利灵活配置混合</t>
+          <t>上投摩根慧选成长股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>55.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>62.01</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0335</t>
+          <t>1.8956</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2296,32 +1585,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>360012</t>
+          <t>010481</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大保德信中小盘混合</t>
+          <t>汇添富高质量成长精选2年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>55.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>82.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>1.6633</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2334,36 +1623,488 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012793</t>
+          <t>506002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城科创两年定开混合C</t>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>36.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.10</t>
+          <t>89.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>1.3494</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5847</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4306</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008315</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2377,128 +2118,387 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0724</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3421</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003332</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方荣发定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003064</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方荣欢定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004946</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
-        <v>4.37</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.57</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004774</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富添福吉祥混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004947</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.93</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.08</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4.37</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>9.57</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.93</v>
       </c>
     </row>
@@ -583,6 +600,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -783,176 +1160,6 @@
       </c>
       <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>506001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3968</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006401</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006402</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1027,26 +1234,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>98.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6921</t>
+          <t>0.3968</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1055,17 +1262,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001042</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏领先股票</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.72</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1075,16 +1282,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3512</t>
+          <t>0.0278</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1093,36 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>360012</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大保德信中小盘混合</t>
+          <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0368</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1131,6 +1338,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6921</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1452,7 +1829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2112,7 +2489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688083-中望软件.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>5.06</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.08</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>4.37</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>9.57</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.93</v>
       </c>
     </row>
@@ -600,6 +617,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8370</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1470</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007129</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9182</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7904</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3770</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009735</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014754</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家人工智能混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014755</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>53.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国新国证新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001485</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安添颐混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1160,176 +2259,6 @@
       </c>
       <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>506001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3968</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006401</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006402</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1404,26 +2333,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>98.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6921</t>
+          <t>0.3968</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1432,17 +2361,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001042</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏领先股票</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.72</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1452,16 +2381,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3512</t>
+          <t>0.0278</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1470,36 +2399,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>360012</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大保德信中小盘混合</t>
+          <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0368</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1508,6 +2437,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6921</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1829,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2489,7 +3588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
